--- a/CPP/STL/STL常用方法.xlsx
+++ b/CPP/STL/STL常用方法.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary\Document\KnowledgeNetwork\知识网络\数算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeFiles\Project\summary\CPP\STL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F2B6C-81B1-4C95-BA9B-B582EE4E0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="852" windowWidth="17280" windowHeight="8880" xr2:uid="{1F9A8F29-532E-42C7-A6AF-F3EACB77596F}"/>
+    <workbookView xWindow="0" yWindow="852" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="STL常用方法" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  [  ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,13 +231,17 @@
   </si>
   <si>
     <t>前向迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[  ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,20 +307,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CA18-52A8-43A1-BF65-A96A93D83536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -663,385 +662,385 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1062,9 +1061,9 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,58 +1071,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,58 +1130,58 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1190,56 +1189,56 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,56 +1246,56 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,9 +1317,9 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,40 +1327,40 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,38 +1368,38 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,38 +1407,38 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,38 +1446,38 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,9 +1499,9 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1510,41 +1509,41 @@
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1552,46 +1551,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,48 +1598,56 @@
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S14:U14"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="S20:U20"/>
@@ -1657,14 +1664,6 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S17:U17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
